--- a/03_Optimus/03_Documents Projet/IO_GAV.xlsx
+++ b/03_Optimus/03_Documents Projet/IO_GAV.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telep\Documents\Intergen\03_Optimus\03_Documents Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gameiro Nicolas\Documents\EPSA\Intergen\03_Optimus\03_Documents Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27405" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27410" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -218,13 +218,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -242,6 +242,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2070100" y="42830"/>
+          <a:ext cx="2038350" cy="428885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,17 +562,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -531,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -539,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -547,18 +596,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
@@ -575,16 +624,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+    <row r="19" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -593,7 +642,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -602,7 +651,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -611,7 +660,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -620,7 +669,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -629,7 +678,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -638,7 +687,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -647,7 +696,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -656,7 +705,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -665,7 +714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -674,7 +723,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -683,7 +732,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -692,7 +741,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -701,7 +750,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -710,7 +759,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -719,7 +768,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -728,7 +777,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -737,7 +786,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -746,7 +795,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -755,7 +804,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -764,7 +813,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -773,17 +822,17 @@
       <c r="F40" s="8"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -794,17 +843,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -817,14 +866,54 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="A31:B31"/>
@@ -841,54 +930,14 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -897,5 +946,6 @@
     <oddFooter>&amp;C&amp;"-,Italique"Ce document est la propriété exclusive de l'EPSA et de ces membres
 Saison 2019 - Véhicule Optimus v1.0</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>